--- a/IOS comands.xlsx
+++ b/IOS comands.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OTUS\OTUS_NE_Basic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE38D13-32EC-47F9-8B10-001C0F94516B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="150" yWindow="0" windowWidth="21120" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,341 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
+  <si>
+    <t>Basic conf</t>
+  </si>
+  <si>
+    <t>! Базовая конфигурация</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>configure terminal</t>
+  </si>
+  <si>
+    <t>no ip domain-lookup</t>
+  </si>
+  <si>
+    <t>hostname SW3</t>
+  </si>
+  <si>
+    <t>service password-encryption</t>
+  </si>
+  <si>
+    <t>enable secret class</t>
+  </si>
+  <si>
+    <t>banner motd # Unauthorized access is strictly prohibited. #</t>
+  </si>
+  <si>
+    <t>line con 0</t>
+  </si>
+  <si>
+    <t>password cisco</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>logging synchronous</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>line vty 0 4</t>
+  </si>
+  <si>
+    <t>! Включаем образ с IPv6</t>
+  </si>
+  <si>
+    <t>sdm prefer dual-ipv4-and-ipv6 default</t>
+  </si>
+  <si>
+    <t>! Настройка SSH</t>
+  </si>
+  <si>
+    <t>ip domain-name my-otus-lab.com</t>
+  </si>
+  <si>
+    <t>crypto key generate rsa general-keys modulus 2048</t>
+  </si>
+  <si>
+    <t>ip ssh version 2</t>
+  </si>
+  <si>
+    <t>username admin privilege 15 secret password</t>
+  </si>
+  <si>
+    <t>transport input ssh</t>
+  </si>
+  <si>
+    <t>login local</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>write memory</t>
+  </si>
+  <si>
+    <t>! Конец базовой конфигурации</t>
+  </si>
+  <si>
+    <t>clock set 15:50:00 23 May 2025</t>
+  </si>
+  <si>
+    <t>IPv6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show mac address-table </t>
+  </si>
+  <si>
+    <t>sh sdm prefer</t>
+  </si>
+  <si>
+    <t>ipv6 address 2001:db8:acad:a::1/64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh ipv6 int brief </t>
+  </si>
+  <si>
+    <t>ipv6 address fe80::1 link-local</t>
+  </si>
+  <si>
+    <t>ssh -l admin 192.168.1.1</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>vlan 10</t>
+  </si>
+  <si>
+    <t>name MGM</t>
+  </si>
+  <si>
+    <t>int vlan 10</t>
+  </si>
+  <si>
+    <t>ip address 192.168.10.11 255.255.255.0</t>
+  </si>
+  <si>
+    <t>ip default-gateway 192.168.10.1</t>
+  </si>
+  <si>
+    <t>sh vlan</t>
+  </si>
+  <si>
+    <t>switchport trunk allowed vlan 10,20,30,1000</t>
+  </si>
+  <si>
+    <t>switchport mode access</t>
+  </si>
+  <si>
+    <t>switchport mode trunk</t>
+  </si>
+  <si>
+    <t>switchport nonegotiate</t>
+  </si>
+  <si>
+    <t>switchport trunk native vlan 1000</t>
+  </si>
+  <si>
+    <t>switchport access vlan 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh int trunk </t>
+  </si>
+  <si>
+    <t>copy run st</t>
+  </si>
+  <si>
+    <t>int g0/0/1.10</t>
+  </si>
+  <si>
+    <t>encapsulation dot1Q 10</t>
+  </si>
+  <si>
+    <t>description MAnagemen</t>
+  </si>
+  <si>
+    <t>ip address 192.168.10.1 255.255.255.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encapsulation dot1Q 10 native </t>
+  </si>
+  <si>
+    <t>sh ip int brief</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>sh spa</t>
+  </si>
+  <si>
+    <t>spa vlan 1 cost 18</t>
+  </si>
+  <si>
+    <t>int f0/4</t>
+  </si>
+  <si>
+    <t>Spa cost 25</t>
+  </si>
+  <si>
+    <t>spanningtree vlan x root primary или secondary.</t>
+  </si>
+  <si>
+    <t>spanning-tree vlan x priority x</t>
+  </si>
+  <si>
+    <t>spa portfast</t>
+  </si>
+  <si>
+    <t>Spanning-tree mode rapid-pvst</t>
+  </si>
+  <si>
+    <t>Point-to-point spanning-tree link-type</t>
+  </si>
+  <si>
+    <t>show cdp neighbors</t>
+  </si>
+  <si>
+    <t>ip route 0.0.0.0 0.0.0.0 10.0.0.2</t>
+  </si>
+  <si>
+    <t>ip dhcp excluded-address 192.168.1.1 192.168.1.5</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>ip dhcp pool R1_Clients_LAN</t>
+  </si>
+  <si>
+    <t>network 192.168.1.0 255.255.255.192</t>
+  </si>
+  <si>
+    <t>domain-name CCNA-lab.com</t>
+  </si>
+  <si>
+    <t>default-router 192.168.1.1</t>
+  </si>
+  <si>
+    <t>lease 2 12 30</t>
+  </si>
+  <si>
+    <t>show ip dhcp pool</t>
+  </si>
+  <si>
+    <t>show ip dhcp bindings</t>
+  </si>
+  <si>
+    <t>show ip dhcp server statistics</t>
+  </si>
+  <si>
+    <t>ip helper-address 10.0.0.1</t>
+  </si>
+  <si>
+    <t>ipv6 route ::/0 2001:db8:acad:2::</t>
+  </si>
+  <si>
+    <t>ipv6 dhcp pool R1-STATELESS</t>
+  </si>
+  <si>
+    <t>dns-server 2001:db8:acad::254</t>
+  </si>
+  <si>
+    <t>domain-name stateless.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipv6 nd other-config-flag </t>
+  </si>
+  <si>
+    <t>ipv6 dhcp server R1-STATELESS</t>
+  </si>
+  <si>
+    <t>ipv6 dhcp pool R2-STATEFUL</t>
+  </si>
+  <si>
+    <t>address prefix 2001:db8:acad:3:aaa::/80</t>
+  </si>
+  <si>
+    <t>domain-name STATEFUL.com</t>
+  </si>
+  <si>
+    <t>interface g0/0/0</t>
+  </si>
+  <si>
+    <t>ipv6 dhcp server R2-STATEFUL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipv6 nd managed-config-flag </t>
+  </si>
+  <si>
+    <t>ipv6 dhcp relay des 2001:db8:acad:2::1 g0/0/0</t>
+  </si>
+  <si>
+    <t>interfaces f0/1 switchport | include Negotiation</t>
+  </si>
+  <si>
+    <t>show port-security interface f0/6</t>
+  </si>
+  <si>
+    <t>port-security</t>
+  </si>
+  <si>
+    <t>switchport port-security</t>
+  </si>
+  <si>
+    <t>switchport port-security maximum 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw port-security violation restrict </t>
+  </si>
+  <si>
+    <t>sw po aging time 60</t>
+  </si>
+  <si>
+    <t>sw po aging type</t>
+  </si>
+  <si>
+    <t>sw port-security mac-address sticky</t>
+  </si>
+  <si>
+    <t>DHCP Snooping</t>
+  </si>
+  <si>
+    <t>ip dhcp snooping trust</t>
+  </si>
+  <si>
+    <t>int fa0/18</t>
+  </si>
+  <si>
+    <t>ip dhcp snooping limit rate 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show ip dhcp snooping </t>
+  </si>
+  <si>
+    <t>ip dhcp snooping binding</t>
+  </si>
+  <si>
+    <t>Etherchannel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sh spanning-tree int f0/6 detail </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +366,76 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Var(--fontStack-monospace, ui-m"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -45,12 +443,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +830,748 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="61.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="23"/>
+    <col min="5" max="5" width="57.42578125" style="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1">
+      <c r="A6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1">
+      <c r="A15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="1" customFormat="1">
+      <c r="A18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="1" customFormat="1">
+      <c r="A23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1">
+      <c r="A24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1">
+      <c r="A25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1">
+      <c r="A26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1">
+      <c r="A29" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1">
+      <c r="A30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1">
+      <c r="A33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="1" customFormat="1">
+      <c r="A34" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" s="1" customFormat="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1">
+      <c r="A36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A37" s="8"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A38" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="1" customFormat="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="1" customFormat="1">
+      <c r="A41" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A42" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A43" s="9"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="1" customFormat="1">
+      <c r="A44" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1">
+      <c r="A45" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="1" customFormat="1">
+      <c r="A46" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="1" customFormat="1">
+      <c r="A47" s="9"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" s="1" customFormat="1">
+      <c r="A48" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="1" customFormat="1">
+      <c r="A49" s="9"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="1" customFormat="1">
+      <c r="A50" s="9"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A51" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:5" s="1" customFormat="1">
+      <c r="A52" s="21"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A53" s="21"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A54" s="21"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" spans="1:5" s="1" customFormat="1">
+      <c r="A55" s="21"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="1" customFormat="1">
+      <c r="A56" s="21"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" s="1" customFormat="1">
+      <c r="A57" s="21"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="22"/>
+      <c r="C58" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="22"/>
+      <c r="C59" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="24"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="22"/>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="22"/>
+      <c r="C61" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A62" s="22"/>
+      <c r="C62" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="22"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="22"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="22"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="22"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="22"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="22"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="22"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="22"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="22"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="22"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="22"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="22"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="22"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="22"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="22"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="22"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="22"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="22"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="22"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="22"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="22"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="22"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="22"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="22"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IOS comands.xlsx
+++ b/IOS comands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OTUS\OTUS_NE_Basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE38D13-32EC-47F9-8B10-001C0F94516B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C23D846-D2DD-426A-8647-25B99B41EF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="0" windowWidth="21120" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-32400" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
   <si>
     <t>Basic conf</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>Point-to-point spanning-tree link-type</t>
-  </si>
-  <si>
-    <t>show cdp neighbors</t>
   </si>
   <si>
     <t>ip route 0.0.0.0 0.0.0.0 10.0.0.2</t>
@@ -834,7 +831,7 @@
   <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -986,7 +983,7 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="9" t="s">
@@ -1043,7 +1040,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="7"/>
       <c r="E18" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -1055,9 +1052,7 @@
         <v>36</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="14" t="s">
-        <v>66</v>
-      </c>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A20" s="9" t="s">
@@ -1078,7 +1073,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="7"/>
       <c r="E21" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -1089,7 +1084,7 @@
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="1" customFormat="1">
@@ -1102,7 +1097,7 @@
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="1" customFormat="1">
@@ -1113,7 +1108,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="7"/>
       <c r="E24" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1">
@@ -1126,7 +1121,7 @@
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="1" customFormat="1">
@@ -1139,7 +1134,7 @@
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -1152,7 +1147,7 @@
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -1170,7 +1165,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="7"/>
       <c r="E29" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="1" customFormat="1">
@@ -1183,7 +1178,7 @@
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -1196,7 +1191,7 @@
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="1" customFormat="1">
@@ -1218,7 +1213,7 @@
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1">
@@ -1238,7 +1233,7 @@
       <c r="C35" s="9"/>
       <c r="D35" s="7"/>
       <c r="E35" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="1" customFormat="1">
@@ -1258,7 +1253,7 @@
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -1271,7 +1266,7 @@
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="1" customFormat="1">
@@ -1291,7 +1286,7 @@
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1">
@@ -1302,7 +1297,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="7"/>
       <c r="E41" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -1322,7 +1317,7 @@
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="1" customFormat="1">
@@ -1331,11 +1326,11 @@
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="1" customFormat="1">
@@ -1344,11 +1339,11 @@
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="1" customFormat="1">
@@ -1357,44 +1352,44 @@
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="1" customFormat="1">
       <c r="A47" s="9"/>
       <c r="B47" s="7"/>
       <c r="C47" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1">
       <c r="A48" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="1" customFormat="1">
       <c r="A49" s="9"/>
       <c r="B49" s="7"/>
       <c r="C49" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="1" customFormat="1">
@@ -1406,11 +1401,11 @@
     </row>
     <row r="51" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A51" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="9"/>
@@ -1421,18 +1416,18 @@
       <c r="C52" s="9"/>
       <c r="D52" s="7"/>
       <c r="E52" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A53" s="21"/>
       <c r="B53" s="7"/>
       <c r="C53" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="1" customFormat="1" ht="15.75" thickBot="1">
@@ -1446,18 +1441,18 @@
       <c r="A55" s="21"/>
       <c r="B55" s="7"/>
       <c r="C55" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1">
       <c r="A56" s="21"/>
       <c r="B56" s="7"/>
       <c r="C56" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -1472,13 +1467,13 @@
     <row r="58" spans="1:5">
       <c r="A58" s="22"/>
       <c r="C58" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="22"/>
       <c r="C59" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E59" s="24"/>
     </row>
@@ -1489,13 +1484,13 @@
     <row r="61" spans="1:5">
       <c r="A61" s="22"/>
       <c r="C61" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1">
       <c r="A62" s="22"/>
       <c r="C62" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:5">
